--- a/Gen1/Assembly/BOM_CSaAF.xlsx
+++ b/Gen1/Assembly/BOM_CSaAF.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_CSaAF" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
   <si>
     <t>Qty</t>
   </si>
@@ -407,6 +407,24 @@
   </si>
   <si>
     <t>4-40 Standoffs to support NI-USb7856 with support board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Instruments 777584-01 </t>
+  </si>
+  <si>
+    <t>PS-2 Power  Supply for USB7856</t>
+  </si>
+  <si>
+    <t>National Instruments 196739-01</t>
+  </si>
+  <si>
+    <t>National Instruments 196375-01</t>
+  </si>
+  <si>
+    <t>NI 9976 2 Pos Terminal Block for USB7856 PS-2 Power Supply</t>
+  </si>
+  <si>
+    <t>Backshell for NI 9976 Terminal Block</t>
   </si>
 </sst>
 </file>
@@ -800,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,6 +884,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+    </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
     </row>
@@ -884,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>

--- a/Gen1/Assembly/BOM_CSaAF.xlsx
+++ b/Gen1/Assembly/BOM_CSaAF.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakareka\Documents\GitHub\PRiME\Gen1\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{50E071A4-FAD8-458E-B21E-CD872F8F9196}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_CSaAF" sheetId="1" r:id="rId1"/>
-    <sheet name="BOM_NI-USB7856-Support" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="NI_USB7856_Support" localSheetId="1">'BOM_NI-USB7856-Support'!$A$1:$F$23</definedName>
+    <definedName name="NI_USB7856_Support" localSheetId="0">BOM_CSaAF!$A$11:$F$33</definedName>
     <definedName name="PWMAttenuation" localSheetId="0">BOM_CSaAF!$A$1:$E$18</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,8 +29,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="NI-USB7856-Support" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="NI-USB7856-Support1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\kakareka\projects\PRiME\notes\Gen1\BOM\NI-USB7856-Support.csv" semicolon="1">
       <textFields count="11">
         <textField/>
@@ -47,7 +47,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="PWMAttenuation" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="PWMAttenuation" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="1250" sourceFile="C:\Users\kakareka\projects\PRiME\notes\Gen1\BOM\PWMAttenuation.csv" semicolon="1">
       <textFields count="8">
         <textField/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="122">
   <si>
     <t>Qty</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>custom, see separate BOM</t>
-  </si>
-  <si>
     <t>enclosure with custom cutouts</t>
   </si>
   <si>
@@ -425,13 +422,22 @@
   </si>
   <si>
     <t>Backshell for NI 9976 Terminal Block</t>
+  </si>
+  <si>
+    <t>NI-USB756-Support</t>
+  </si>
+  <si>
+    <t>see BOM listed below</t>
+  </si>
+  <si>
+    <t>See "PRiME Main Assembly Instructions" for notes on assembling power cable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,13 +445,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -457,17 +491,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -495,7 +545,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -512,11 +562,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PWMAttenuation" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NI-USB7856-Support" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NI-USB7856-Support" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="PWMAttenuation" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -815,686 +865,695 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="55.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1844210</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>820</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1844359</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7">
-        <v>1844210</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>820</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18">
-        <v>1844359</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G24" t="s">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G25" t="s">
-        <v>113</v>
-      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D6:F8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
